--- a/REGULAR/ONT/DELA CRUZ, SHEILA G..xlsx
+++ b/REGULAR/ONT/DELA CRUZ, SHEILA G..xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="277">
   <si>
     <t>PERIOD</t>
   </si>
@@ -891,6 +891,19 @@
   </si>
   <si>
     <t>UT(0-2-0)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2024</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1591,7 +1604,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K491" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K492" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1920,12 +1933,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K491"/>
+  <dimension ref="A2:K492"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A427" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A432" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F436" sqref="F436"/>
+      <selection pane="bottomLeft" activeCell="K450" sqref="K450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,7 +2102,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>103.73099999999988</v>
+        <v>107.73099999999988</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2099,7 +2112,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>215.17500000000001</v>
+        <v>220.17500000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11631,13 +11644,15 @@
         <v>45139</v>
       </c>
       <c r="B446" s="20"/>
-      <c r="C446" s="13"/>
+      <c r="C446" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D446" s="39"/>
       <c r="E446" s="9"/>
       <c r="F446" s="20"/>
-      <c r="G446" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G446" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H446" s="39"/>
       <c r="I446" s="9"/>
@@ -11649,13 +11664,15 @@
         <v>45170</v>
       </c>
       <c r="B447" s="20"/>
-      <c r="C447" s="13"/>
+      <c r="C447" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D447" s="39"/>
       <c r="E447" s="9"/>
       <c r="F447" s="20"/>
-      <c r="G447" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G447" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H447" s="39"/>
       <c r="I447" s="9"/>
@@ -11667,13 +11684,15 @@
         <v>45200</v>
       </c>
       <c r="B448" s="20"/>
-      <c r="C448" s="13"/>
+      <c r="C448" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D448" s="39"/>
       <c r="E448" s="9"/>
       <c r="F448" s="20"/>
-      <c r="G448" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G448" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H448" s="39"/>
       <c r="I448" s="9"/>
@@ -11685,13 +11704,15 @@
         <v>45231</v>
       </c>
       <c r="B449" s="20"/>
-      <c r="C449" s="13"/>
+      <c r="C449" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D449" s="39"/>
       <c r="E449" s="9"/>
       <c r="F449" s="20"/>
-      <c r="G449" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G449" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H449" s="39"/>
       <c r="I449" s="9"/>
@@ -11702,9 +11723,13 @@
       <c r="A450" s="40">
         <v>45261</v>
       </c>
-      <c r="B450" s="20"/>
+      <c r="B450" s="20" t="s">
+        <v>154</v>
+      </c>
       <c r="C450" s="13"/>
-      <c r="D450" s="39"/>
+      <c r="D450" s="39">
+        <v>1</v>
+      </c>
       <c r="E450" s="9"/>
       <c r="F450" s="20"/>
       <c r="G450" s="13" t="str">
@@ -11714,11 +11739,13 @@
       <c r="H450" s="39"/>
       <c r="I450" s="9"/>
       <c r="J450" s="11"/>
-      <c r="K450" s="20"/>
+      <c r="K450" s="49">
+        <v>45289</v>
+      </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A451" s="40">
-        <v>45292</v>
+      <c r="A451" s="23" t="s">
+        <v>276</v>
       </c>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -11736,7 +11763,7 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -11754,7 +11781,7 @@
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -11772,7 +11799,7 @@
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -11790,7 +11817,7 @@
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -11808,7 +11835,7 @@
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -11826,7 +11853,7 @@
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -11844,7 +11871,7 @@
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -11862,7 +11889,7 @@
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -11880,7 +11907,7 @@
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -11898,7 +11925,7 @@
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -11916,7 +11943,7 @@
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -11934,7 +11961,7 @@
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -11952,7 +11979,7 @@
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -11970,7 +11997,7 @@
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -11988,7 +12015,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -12006,7 +12033,7 @@
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -12023,7 +12050,9 @@
       <c r="K467" s="20"/>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A468" s="40"/>
+      <c r="A468" s="40">
+        <v>45778</v>
+      </c>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
       <c r="D468" s="39"/>
@@ -12391,20 +12420,36 @@
       <c r="K490" s="20"/>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A491" s="41"/>
-      <c r="B491" s="15"/>
-      <c r="C491" s="42"/>
-      <c r="D491" s="43"/>
+      <c r="A491" s="40"/>
+      <c r="B491" s="20"/>
+      <c r="C491" s="13"/>
+      <c r="D491" s="39"/>
       <c r="E491" s="9"/>
-      <c r="F491" s="15"/>
+      <c r="F491" s="20"/>
       <c r="G491" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H491" s="43"/>
+      <c r="H491" s="39"/>
       <c r="I491" s="9"/>
-      <c r="J491" s="12"/>
-      <c r="K491" s="15"/>
+      <c r="J491" s="11"/>
+      <c r="K491" s="20"/>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A492" s="41"/>
+      <c r="B492" s="15"/>
+      <c r="C492" s="42"/>
+      <c r="D492" s="43"/>
+      <c r="E492" s="9"/>
+      <c r="F492" s="15"/>
+      <c r="G492" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H492" s="43"/>
+      <c r="I492" s="9"/>
+      <c r="J492" s="12"/>
+      <c r="K492" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12569,7 +12614,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>318.90599999999989</v>
+        <v>327.90599999999989</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
